--- a/trunk/Docs/Templates/SpecialityDisciplineTopicStructureTemplate.xlsx
+++ b/trunk/Docs/Templates/SpecialityDisciplineTopicStructureTemplate.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Дисциплина</t>
   </si>
   <si>
     <t>Тема</t>
-  </si>
-  <si>
-    <t>Инженерные основы информационных технологий</t>
   </si>
   <si>
     <t>Введение в программную инженерию</t>
@@ -41,6 +38,15 @@
   </si>
   <si>
     <t>Дополнительные процессы создания ПП</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Количество часов практики</t>
+  </si>
+  <si>
+    <t>Количество часов лекций</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -108,6 +114,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,83 +415,111 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="38.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
